--- a/Excel Files/Individual States/California - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/California - Golf Digest Top Courses in each State.xlsx
@@ -1035,7 +1035,7 @@
         <v>76</v>
       </c>
       <c r="G5">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H5" t="s">
         <v>136</v>
